--- a/vocabs/dictionaries.xlsx
+++ b/vocabs/dictionaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AfricaMultiple\Pictures\WissKICntVob\vocabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CA93DB-68DA-47A6-A003-A37423A48DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333BA9AA-0442-46D9-B18E-D46EA34046AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResourceTypes" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4152" uniqueCount="4061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4153" uniqueCount="4061">
   <si>
     <t>ResourceTypes</t>
   </si>
@@ -12784,7 +12784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14628,11 +14628,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F296" sqref="F296"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14748,7 +14749,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1178</v>
       </c>
@@ -14847,7 +14848,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1190</v>
       </c>
@@ -15034,7 +15035,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1212</v>
       </c>
@@ -15213,7 +15214,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1234</v>
       </c>
@@ -15352,7 +15353,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1251</v>
       </c>
@@ -15531,7 +15532,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1273</v>
       </c>
@@ -15638,7 +15639,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1286</v>
       </c>
@@ -15841,7 +15842,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1311</v>
       </c>
@@ -15956,7 +15957,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1325</v>
       </c>
@@ -15975,7 +15976,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1327</v>
       </c>
@@ -16066,7 +16067,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1338</v>
       </c>
@@ -16229,7 +16230,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1358</v>
       </c>
@@ -16912,7 +16913,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1443</v>
       </c>
@@ -16963,7 +16964,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1449</v>
       </c>
@@ -17046,7 +17047,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1459</v>
       </c>
@@ -17577,7 +17578,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1525</v>
       </c>
@@ -17716,7 +17717,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1542</v>
       </c>
@@ -17999,7 +18000,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1577</v>
       </c>
@@ -18282,7 +18283,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1611</v>
       </c>
@@ -18613,7 +18614,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1652</v>
       </c>
@@ -18769,7 +18770,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C508" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A1:C508" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -23207,9 +23212,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D231"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25923,6 +25928,9 @@
       </c>
       <c r="B226" t="s">
         <v>972</v>
+      </c>
+      <c r="D226" t="s">
+        <v>2173</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">

--- a/vocabs/dictionaries.xlsx
+++ b/vocabs/dictionaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AfricaMultiple\Pictures\WissKICntVob\vocabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333BA9AA-0442-46D9-B18E-D46EA34046AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D346EB8C-0440-4B44-9701-8159582967B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResourceTypes" sheetId="1" r:id="rId1"/>
@@ -23212,7 +23212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -26007,7 +26007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BF6914-C9C7-416B-BA1D-5CF7ED3A8F05}">
   <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -26486,6 +26486,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
